--- a/public/sample/sample_cs04.xlsx
+++ b/public/sample/sample_cs04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9444D6-4EEB-7448-97FA-3E7475ABA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEBFCD3-CB77-4B28-ABA5-7A4BD5CBA46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>메모</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F222MHL11CT3H0L</t>
-  </si>
-  <si>
     <t>F222MHL11CT3H0M</t>
   </si>
   <si>
@@ -60,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022-01-01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동일자(*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 이동일자 / 출고창고코드 / 이동창고코드 / 메모 항목은 6행에 적힌 내용으로 일괄등록됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,13 +74,20 @@
   <si>
     <t>이동수량(*)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F233MSL04CTBK0L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,9 +203,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,103 +525,96 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
+      <c r="E6">
+        <v>89000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>89000</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>89000</v>
       </c>
       <c r="F7">
-        <v>89000</v>
-      </c>
-      <c r="G7">
         <v>3</v>
       </c>
     </row>
